--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H2">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.728350302308071</v>
+        <v>13.267299</v>
       </c>
       <c r="N2">
-        <v>8.728350302308071</v>
+        <v>39.801897</v>
       </c>
       <c r="O2">
-        <v>0.3381531028746331</v>
+        <v>0.4248136128385448</v>
       </c>
       <c r="P2">
-        <v>0.3381531028746331</v>
+        <v>0.4248136128385448</v>
       </c>
       <c r="Q2">
-        <v>714.7870855889267</v>
+        <v>1337.839728328249</v>
       </c>
       <c r="R2">
-        <v>714.7870855889267</v>
+        <v>12040.55755495424</v>
       </c>
       <c r="S2">
-        <v>0.2265647290308574</v>
+        <v>0.2783372667820406</v>
       </c>
       <c r="T2">
-        <v>0.2265647290308574</v>
+        <v>0.2783372667820406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H3">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2718798405898</v>
+        <v>10.340832</v>
       </c>
       <c r="N3">
-        <v>10.2718798405898</v>
+        <v>31.022496</v>
       </c>
       <c r="O3">
-        <v>0.3979524102661565</v>
+        <v>0.3311093088108164</v>
       </c>
       <c r="P3">
-        <v>0.3979524102661565</v>
+        <v>0.3311093088108164</v>
       </c>
       <c r="Q3">
-        <v>841.1906947448369</v>
+        <v>1042.742450710432</v>
       </c>
       <c r="R3">
-        <v>841.1906947448369</v>
+        <v>9384.682056393889</v>
       </c>
       <c r="S3">
-        <v>0.2666306452097085</v>
+        <v>0.2169423418536254</v>
       </c>
       <c r="T3">
-        <v>0.2666306452097085</v>
+        <v>0.2169423418536255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H4">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I4">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J4">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.81159955231572</v>
+        <v>7.622739666666667</v>
       </c>
       <c r="N4">
-        <v>6.81159955231572</v>
+        <v>22.868219</v>
       </c>
       <c r="O4">
-        <v>0.2638944868592104</v>
+        <v>0.2440770783506388</v>
       </c>
       <c r="P4">
-        <v>0.2638944868592104</v>
+        <v>0.2440770783506388</v>
       </c>
       <c r="Q4">
-        <v>557.8194301976062</v>
+        <v>768.6571294406119</v>
       </c>
       <c r="R4">
-        <v>557.8194301976062</v>
+        <v>6917.914164965508</v>
       </c>
       <c r="S4">
-        <v>0.176810984136261</v>
+        <v>0.1599189499091747</v>
       </c>
       <c r="T4">
-        <v>0.176810984136261</v>
+        <v>0.1599189499091747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H5">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.728350302308071</v>
+        <v>13.267299</v>
       </c>
       <c r="N5">
-        <v>8.728350302308071</v>
+        <v>39.801897</v>
       </c>
       <c r="O5">
-        <v>0.3381531028746331</v>
+        <v>0.4248136128385448</v>
       </c>
       <c r="P5">
-        <v>0.3381531028746331</v>
+        <v>0.4248136128385448</v>
       </c>
       <c r="Q5">
-        <v>192.4550515511259</v>
+        <v>317.194177628164</v>
       </c>
       <c r="R5">
-        <v>192.4550515511259</v>
+        <v>2854.747598653476</v>
       </c>
       <c r="S5">
-        <v>0.06100211865100327</v>
+        <v>0.06599218020720818</v>
       </c>
       <c r="T5">
-        <v>0.06100211865100327</v>
+        <v>0.06599218020720818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H6">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J6">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2718798405898</v>
+        <v>10.340832</v>
       </c>
       <c r="N6">
-        <v>10.2718798405898</v>
+        <v>31.022496</v>
       </c>
       <c r="O6">
-        <v>0.3979524102661565</v>
+        <v>0.3311093088108164</v>
       </c>
       <c r="P6">
-        <v>0.3979524102661565</v>
+        <v>0.3311093088108164</v>
       </c>
       <c r="Q6">
-        <v>226.4889808243521</v>
+        <v>247.228294337152</v>
       </c>
       <c r="R6">
-        <v>226.4889808243521</v>
+        <v>2225.054649034368</v>
       </c>
       <c r="S6">
-        <v>0.07178978971992125</v>
+        <v>0.05143579328667162</v>
       </c>
       <c r="T6">
-        <v>0.07178978971992125</v>
+        <v>0.05143579328667162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H7">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J7">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.81159955231572</v>
+        <v>7.622739666666667</v>
       </c>
       <c r="N7">
-        <v>6.81159955231572</v>
+        <v>22.868219</v>
       </c>
       <c r="O7">
-        <v>0.2638944868592104</v>
+        <v>0.2440770783506388</v>
       </c>
       <c r="P7">
-        <v>0.2638944868592104</v>
+        <v>0.2440770783506388</v>
       </c>
       <c r="Q7">
-        <v>150.1918114629169</v>
+        <v>182.2442261866502</v>
       </c>
       <c r="R7">
-        <v>150.1918114629169</v>
+        <v>1640.198035679852</v>
       </c>
       <c r="S7">
-        <v>0.04760601828544922</v>
+        <v>0.03791587193107661</v>
       </c>
       <c r="T7">
-        <v>0.04760601828544922</v>
+        <v>0.03791587193107661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H8">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I8">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J8">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.728350302308071</v>
+        <v>13.267299</v>
       </c>
       <c r="N8">
-        <v>8.728350302308071</v>
+        <v>39.801897</v>
       </c>
       <c r="O8">
-        <v>0.3381531028746331</v>
+        <v>0.4248136128385448</v>
       </c>
       <c r="P8">
-        <v>0.3381531028746331</v>
+        <v>0.4248136128385448</v>
       </c>
       <c r="Q8">
-        <v>159.5941348627784</v>
+        <v>386.85051347747</v>
       </c>
       <c r="R8">
-        <v>159.5941348627784</v>
+        <v>3481.65462129723</v>
       </c>
       <c r="S8">
-        <v>0.05058625519277241</v>
+        <v>0.08048416584929605</v>
       </c>
       <c r="T8">
-        <v>0.05058625519277241</v>
+        <v>0.08048416584929605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H9">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I9">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J9">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.2718798405898</v>
+        <v>10.340832</v>
       </c>
       <c r="N9">
-        <v>10.2718798405898</v>
+        <v>31.022496</v>
       </c>
       <c r="O9">
-        <v>0.3979524102661565</v>
+        <v>0.3311093088108164</v>
       </c>
       <c r="P9">
-        <v>0.3979524102661565</v>
+        <v>0.3311093088108164</v>
       </c>
       <c r="Q9">
-        <v>187.8169092434166</v>
+        <v>301.52001315296</v>
       </c>
       <c r="R9">
-        <v>187.8169092434166</v>
+        <v>2713.68011837664</v>
       </c>
       <c r="S9">
-        <v>0.05953197533652676</v>
+        <v>0.06273117367051936</v>
       </c>
       <c r="T9">
-        <v>0.05953197533652676</v>
+        <v>0.06273117367051936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H10">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I10">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J10">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.81159955231572</v>
+        <v>7.622739666666667</v>
       </c>
       <c r="N10">
-        <v>6.81159955231572</v>
+        <v>22.868219</v>
       </c>
       <c r="O10">
-        <v>0.2638944868592104</v>
+        <v>0.2440770783506388</v>
       </c>
       <c r="P10">
-        <v>0.2638944868592104</v>
+        <v>0.2440770783506388</v>
       </c>
       <c r="Q10">
-        <v>124.5471709924443</v>
+        <v>222.2653423394678</v>
       </c>
       <c r="R10">
-        <v>124.5471709924443</v>
+        <v>2000.38808105521</v>
       </c>
       <c r="S10">
-        <v>0.03947748443750022</v>
+        <v>0.04624225651038751</v>
       </c>
       <c r="T10">
-        <v>0.03947748443750022</v>
+        <v>0.04624225651038751</v>
       </c>
     </row>
   </sheetData>
